--- a/tables/Table6_ram_multispecies_fisheries.xlsx
+++ b/tables/Table6_ram_multispecies_fisheries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/mscom/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D00411-4FB5-1440-829F-B9AFF13A0E76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140792A-6199-8547-915D-9C3454D13F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{4BA2E496-0380-A240-A129-27E5BF757662}"/>
+    <workbookView xWindow="480" yWindow="2980" windowWidth="25040" windowHeight="14500" xr2:uid="{4BA2E496-0380-A240-A129-27E5BF757662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="194">
   <si>
     <t>Species</t>
   </si>
@@ -235,27 +235,18 @@
     <t>1036 / 5.9%</t>
   </si>
   <si>
-    <t>Australia SE scalefish and shark fishery</t>
-  </si>
-  <si>
     <t>BGRDRSE</t>
   </si>
   <si>
     <t>NZ Chatham Rise middle-depth fishery</t>
   </si>
   <si>
-    <t>US BSAI groundfish fishery</t>
-  </si>
-  <si>
     <t>Pacific cod (Gadus macrocephalus)</t>
   </si>
   <si>
     <t>PCODBSAI</t>
   </si>
   <si>
-    <t>US GB groundfish fishery</t>
-  </si>
-  <si>
     <t>18870 / 62.8%</t>
   </si>
   <si>
@@ -269,15 +260,6 @@
   </si>
   <si>
     <t>2024 / 6.7%</t>
-  </si>
-  <si>
-    <t>US GB/GOM groundfish fishery</t>
-  </si>
-  <si>
-    <t>US GOM groundfish fishery</t>
-  </si>
-  <si>
-    <t>US West Coast DTS fishery</t>
   </si>
   <si>
     <t>Blue grenadier (Macruronus novaezelandiae)</t>
@@ -303,6 +285,330 @@
   <si>
     <t>Natural
 mortality</t>
+  </si>
+  <si>
+    <t>Australia SE scalefish/sharks fishery</t>
+  </si>
+  <si>
+    <t>IATTC East Pacific tunas fishery</t>
+  </si>
+  <si>
+    <t>Yellowfin tuna (Thunnus albacares)</t>
+  </si>
+  <si>
+    <t>YFINEPAC</t>
+  </si>
+  <si>
+    <t>293000 / 45.5%</t>
+  </si>
+  <si>
+    <t>Skipjack tuna (Katsuwonus pelamis)</t>
+  </si>
+  <si>
+    <t>SKJEPAC</t>
+  </si>
+  <si>
+    <t>229100 / 35.6%</t>
+  </si>
+  <si>
+    <t>Bigeye tuna (Thunnus obesus)</t>
+  </si>
+  <si>
+    <t>BIGEYEEPAC</t>
+  </si>
+  <si>
+    <t>115540 / 17.9%</t>
+  </si>
+  <si>
+    <t>Swordfish (Xiphias gladius)</t>
+  </si>
+  <si>
+    <t>SWORDEPAC</t>
+  </si>
+  <si>
+    <t>5439 / 0.8%</t>
+  </si>
+  <si>
+    <t>Striped marlin (Kajikia audax)</t>
+  </si>
+  <si>
+    <t>STMARLINNEPAC</t>
+  </si>
+  <si>
+    <t>1290 / 0.2%</t>
+  </si>
+  <si>
+    <t>ICCAT Atlantic tunas fishery</t>
+  </si>
+  <si>
+    <t>YFINATL</t>
+  </si>
+  <si>
+    <t>116000 / 98.2%</t>
+  </si>
+  <si>
+    <t>Sailfish (Istiophorus albicans)</t>
+  </si>
+  <si>
+    <t>SAILEATL</t>
+  </si>
+  <si>
+    <t>2149 / 1.8%</t>
+  </si>
+  <si>
+    <t>ICCAT East Atlantic tunas fishery</t>
+  </si>
+  <si>
+    <t>SKJEATL</t>
+  </si>
+  <si>
+    <t>133600 / 56.9%</t>
+  </si>
+  <si>
+    <t>BIGEYEATL</t>
+  </si>
+  <si>
+    <t>77570 / 33%</t>
+  </si>
+  <si>
+    <t>SWORDNATL</t>
+  </si>
+  <si>
+    <t>11425 / 4.9%</t>
+  </si>
+  <si>
+    <t>Atlantic bluefin tuna (Thunnus thynnus)</t>
+  </si>
+  <si>
+    <t>ATBTUNAEATL</t>
+  </si>
+  <si>
+    <t>7979 / 3.4%</t>
+  </si>
+  <si>
+    <t>Blue marlin (Makaira nigricans)</t>
+  </si>
+  <si>
+    <t>BMARLINATL</t>
+  </si>
+  <si>
+    <t>3729 / 1.6%</t>
+  </si>
+  <si>
+    <t>White marlin (Kajikia albida)</t>
+  </si>
+  <si>
+    <t>WMARLINATL</t>
+  </si>
+  <si>
+    <t>678 / 0.3%</t>
+  </si>
+  <si>
+    <t>ICCAT Mediterranean tunas fishery</t>
+  </si>
+  <si>
+    <t>SWORDMED</t>
+  </si>
+  <si>
+    <t>13874 / 72.8%</t>
+  </si>
+  <si>
+    <t>Albacore tuna (Thunnus alalunga)</t>
+  </si>
+  <si>
+    <t>ALBAMED</t>
+  </si>
+  <si>
+    <t>5183 / 27.2%</t>
+  </si>
+  <si>
+    <t>ICCAT South Atlantic tunas fishery</t>
+  </si>
+  <si>
+    <t>ALBASATL</t>
+  </si>
+  <si>
+    <t>21510 / 63.5%</t>
+  </si>
+  <si>
+    <t>SWORDSATL</t>
+  </si>
+  <si>
+    <t>12372 / 36.5%</t>
+  </si>
+  <si>
+    <t>SKJWATL</t>
+  </si>
+  <si>
+    <t>25650 / 87.9%</t>
+  </si>
+  <si>
+    <t>ATBTUNAWATL</t>
+  </si>
+  <si>
+    <t>2159 / 7.4%</t>
+  </si>
+  <si>
+    <t>SAILWATL</t>
+  </si>
+  <si>
+    <t>1374 / 4.7%</t>
+  </si>
+  <si>
+    <t>IOTC Indian Ocean tunas fishery</t>
+  </si>
+  <si>
+    <t>SKJCIO</t>
+  </si>
+  <si>
+    <t>453300 / 43.9%</t>
+  </si>
+  <si>
+    <t>YFINEIO</t>
+  </si>
+  <si>
+    <t>372400 / 36.1%</t>
+  </si>
+  <si>
+    <t>BIGEYEIO</t>
+  </si>
+  <si>
+    <t>116350 / 11.3%</t>
+  </si>
+  <si>
+    <t>ALBAIO</t>
+  </si>
+  <si>
+    <t>35230 / 3.4%</t>
+  </si>
+  <si>
+    <t>SWORDIO</t>
+  </si>
+  <si>
+    <t>28550 / 2.8%</t>
+  </si>
+  <si>
+    <t>Black marlin (Istiompax indica)</t>
+  </si>
+  <si>
+    <t>BLKMARLINIO</t>
+  </si>
+  <si>
+    <t>11952 / 1.2%</t>
+  </si>
+  <si>
+    <t>Indo-Pacific blue marlin (Makaira mazara)</t>
+  </si>
+  <si>
+    <t>BMARLINIO</t>
+  </si>
+  <si>
+    <t>10724 / 1%</t>
+  </si>
+  <si>
+    <t>STMARLINIO</t>
+  </si>
+  <si>
+    <t>3232 / 0.3%</t>
+  </si>
+  <si>
+    <t>ISC North Pacific tunas fishery</t>
+  </si>
+  <si>
+    <t>ALBANPAC</t>
+  </si>
+  <si>
+    <t>80760 / 50.1%</t>
+  </si>
+  <si>
+    <t>Blue shark (Prionace glauca)</t>
+  </si>
+  <si>
+    <t>BLSHARNPAC</t>
+  </si>
+  <si>
+    <t>47310 / 29.4%</t>
+  </si>
+  <si>
+    <t>BMARLINPAC</t>
+  </si>
+  <si>
+    <t>19930 / 12.4%</t>
+  </si>
+  <si>
+    <t>SWORDNPAC</t>
+  </si>
+  <si>
+    <t>13176 / 8.2%</t>
+  </si>
+  <si>
+    <t>SPC West Pacific tunas fishery</t>
+  </si>
+  <si>
+    <t>SKJCWPAC</t>
+  </si>
+  <si>
+    <t>1512000 / 68.6%</t>
+  </si>
+  <si>
+    <t>YFINCWPAC</t>
+  </si>
+  <si>
+    <t>535700 / 24.3%</t>
+  </si>
+  <si>
+    <t>BIGEYECWPAC</t>
+  </si>
+  <si>
+    <t>154400 / 7%</t>
+  </si>
+  <si>
+    <t>STMARLINSWPO</t>
+  </si>
+  <si>
+    <t>1912 / 0.1%</t>
+  </si>
+  <si>
+    <t>USA BSAI groundfish fishery</t>
+  </si>
+  <si>
+    <t>USA GB groundfish fishery</t>
+  </si>
+  <si>
+    <t>USA GB/GOM groundfish fishery</t>
+  </si>
+  <si>
+    <t>USA GOM groundfish fishery</t>
+  </si>
+  <si>
+    <t>USA Mid-Atlantic MSB fishery</t>
+  </si>
+  <si>
+    <t>Northern shortfin squid (Illex illecebrosus)</t>
+  </si>
+  <si>
+    <t>ILLEXNWATLC</t>
+  </si>
+  <si>
+    <t>12185 / 69.1%</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Atlantic butterfish (Peprilus triacanthus)</t>
+  </si>
+  <si>
+    <t>BUTTERGOMCHATT</t>
+  </si>
+  <si>
+    <t>5451 / 30.9%</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>USA West Coast DTS fishery</t>
   </si>
 </sst>
 </file>
@@ -684,17 +990,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C301C9-94E5-264A-B4DB-F80748D1A156}">
-  <dimension ref="A3:J48"/>
+  <dimension ref="A3:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E38"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
@@ -713,22 +1021,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="E4" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -737,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5">
         <v>0.361661570898477</v>
@@ -754,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E6" s="5">
         <v>0.401299105334464</v>
@@ -771,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E7" s="5">
         <v>0.19338020167112599</v>
@@ -779,16 +1086,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E8" s="5">
         <v>0.237023380049284</v>
@@ -796,480 +1103,1147 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>87</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E10" s="5">
-        <v>0.237023380049284</v>
+        <v>0.500982505729481</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E11" s="5">
-        <v>0.19338020167112599</v>
+        <v>0.91821071796981002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5">
-        <v>0.23319492562637401</v>
+        <v>0.32712460183947101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.23588715422558801</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E14" s="5">
-        <v>0.40695461504932801</v>
+        <v>0.47455569575294598</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.15331131956350899</v>
-      </c>
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E16" s="5">
-        <v>0.40695461504932801</v>
+        <v>0.500982505729481</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5">
-        <v>0.40358343935038099</v>
+        <v>0.63924829034267305</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>109</v>
+      </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5">
-        <v>0.354265019571743</v>
+        <v>0.91821071796981002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5">
-        <v>0.27028799179700103</v>
+        <v>0.32712460183947101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E21" s="5">
-        <v>0.21915686168107801</v>
+        <v>0.23588715422558801</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E22" s="5">
-        <v>0.335817999116794</v>
+        <v>0.15233618771375099</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.32834236353416602</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E24" s="5">
-        <v>0.213934974123137</v>
+        <v>0.51143301494010196</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.139530289127198</v>
-      </c>
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E26" s="5">
-        <v>0.20719005765832199</v>
+        <v>0.23588715422558801</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E27" s="5">
-        <v>0.210817512287924</v>
+        <v>0.25572022286456803</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>131</v>
+      </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E29" s="5">
-        <v>0.27028799179700103</v>
+        <v>0.25572022286456803</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E30" s="5">
-        <v>0.22485103026669301</v>
+        <v>0.23588715422558801</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E31" s="5">
-        <v>0.354265019571743</v>
+        <v>0.91821071796981002</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5">
-        <v>0.21915686168107801</v>
+        <v>0.15233618771375099</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E33" s="5">
-        <v>0.335817999116794</v>
+        <v>0.63924829034267305</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>142</v>
+      </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E35" s="5">
-        <v>0.143726560356019</v>
+        <v>0.91821071796981002</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E36" s="5">
-        <v>0.28528164896024599</v>
+        <v>0.500982505729481</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E37" s="5">
-        <v>9.7383693797120294E-2</v>
+        <v>0.32712460183947101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.25572022286456803</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.23588715422558801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.51258914151426604</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.224538819545233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.47455569575294598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.25572022286456803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.21396988466347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.32834236353416602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.23588715422558801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.237023380049284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.19338020167112599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.23319492562637401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.91821071796981002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.500982505729481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.32712460183947101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.47455569575294598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.40695461504932801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.15331131956350899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.40695461504932801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.40358343935038099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.354265019571743</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.27028799179700103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.21915686168107801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.335817999116794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.213934974123137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.139530289127198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.20719005765832199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.210817512287924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.27028799179700103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.22485103026669301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.354265019571743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.21915686168107801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.335817999116794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1.0340789318410899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.143726560356019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.28528164896024599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="5">
+        <v>9.7383693797120294E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B85" t="s">
         <v>67</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C85" t="s">
         <v>68</v>
       </c>
-      <c r="D38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="5">
         <v>5.5502361042089603E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
